--- a/제출물/3조 테이블정의서.xlsx
+++ b/제출물/3조 테이블정의서.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>테이블정의서</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>station</t>
+  </si>
+  <si>
+    <t>PRI, FK</t>
   </si>
   <si>
     <t>업무규칙</t>
@@ -973,7 +976,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
@@ -997,10 +1000,10 @@
     </row>
     <row r="8" ht="38.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -28135,14 +28138,14 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -28154,7 +28157,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -28197,7 +28200,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>27</v>
@@ -28212,7 +28215,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
@@ -28222,10 +28225,10 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>23</v>
@@ -28240,10 +28243,10 @@
     </row>
     <row r="8" ht="39.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -28359,14 +28362,14 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -28395,7 +28398,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -28472,7 +28475,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>27</v>
@@ -28514,13 +28517,13 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -28550,13 +28553,13 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -28583,7 +28586,7 @@
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="2"/>
@@ -28660,7 +28663,7 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>3</v>
@@ -28700,14 +28703,14 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -28736,7 +28739,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -28813,13 +28816,13 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -28830,7 +28833,7 @@
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
@@ -28855,10 +28858,10 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>23</v>
@@ -28893,10 +28896,10 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>
@@ -28928,7 +28931,7 @@
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="26"/>
@@ -29005,7 +29008,7 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>3</v>
@@ -29045,14 +29048,14 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -29081,7 +29084,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -29158,10 +29161,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>23</v>
@@ -29200,13 +29203,13 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -29233,7 +29236,7 @@
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="26"/>
